--- a/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>47084.0</v>
+        <v>47641.0</v>
       </c>
     </row>
     <row r="4">

--- a/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>73577.0</v>
+        <v>19637.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>47641.0</v>
+        <v>16278.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>45499.0</v>
+        <v>13834.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/Goalmins_ol.xlsx
@@ -32,10 +32,10 @@
     <t>E1</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>B1</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>19637.0</v>
+        <v>21307.0</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +114,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>16278.0</v>
+        <v>20047.0</v>
       </c>
     </row>
     <row r="4">
@@ -125,7 +125,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>13834.0</v>
+        <v>17229.0</v>
       </c>
     </row>
   </sheetData>
